--- a/02_MasterWifoMannheim/99_Backup/Course143.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course143.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD32051265F59281159C968F16901FB12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22DACD21-895D-4E24-BC72-6C2DBA49DCE0}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 612 Business-to-Business-Marketing</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In many industries (e.g. consumer goods, retail, metalworking industry) an essential part of transactions is done between companies and organizational clients (also companies or public markets and their consequences for marketing.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students understand the characteristics of organizational buying behaviour and the peculiarities of the Marketing Mix in the B2B context. types of business and their implications for marketing. At the end of the course, students are able to apply and adapt marketing strategy, concepts and instruments to business-to-business environments.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (45 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Kraus</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>MKT 610</t>
-  </si>
-  <si>
-    <t>MKT 510</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 612 Business-to-Business-Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In many industries (e.g. consumer goods, retail, metalworking industry) an essential part of transactions is done between companies and organizational clients (also companies or public markets and their consequences for marketing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students understand the characteristics of organizational buying behaviour and the peculiarities of the Marketing Mix in the B2B context. types of business and their implications for marketing. At the end of the course, students are able to apply and adapt marketing strategy, concepts and instruments to business-to-business environments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MKT 510</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MKT 610</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 1 3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (45 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Kraus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
+        </is>
       </c>
     </row>
   </sheetData>
